--- a/natmiOut/OldD7/LR-pairs_lrc2p/Nts-Sort1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Nts-Sort1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.02951087283337</v>
+        <v>4.905497</v>
       </c>
       <c r="H2">
-        <v>4.02951087283337</v>
+        <v>14.716491</v>
       </c>
       <c r="I2">
-        <v>0.9571877702252493</v>
+        <v>0.9446018122065107</v>
       </c>
       <c r="J2">
-        <v>0.9571877702252493</v>
+        <v>0.9446018122065107</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.07839309397694</v>
+        <v>1.383699</v>
       </c>
       <c r="N2">
-        <v>1.07839309397694</v>
+        <v>4.151097</v>
       </c>
       <c r="O2">
-        <v>0.0954159541244213</v>
+        <v>0.08080976933214185</v>
       </c>
       <c r="P2">
-        <v>0.0954159541244213</v>
+        <v>0.08080976933214185</v>
       </c>
       <c r="Q2">
-        <v>4.345396697368498</v>
+        <v>6.787731293403</v>
       </c>
       <c r="R2">
-        <v>4.345396697368498</v>
+        <v>61.089581640627</v>
       </c>
       <c r="S2">
-        <v>0.0913309843722695</v>
+        <v>0.0763330545551313</v>
       </c>
       <c r="T2">
-        <v>0.0913309843722695</v>
+        <v>0.0763330545551313</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.02951087283337</v>
+        <v>4.905497</v>
       </c>
       <c r="H3">
-        <v>4.02951087283337</v>
+        <v>14.716491</v>
       </c>
       <c r="I3">
-        <v>0.9571877702252493</v>
+        <v>0.9446018122065107</v>
       </c>
       <c r="J3">
-        <v>0.9571877702252493</v>
+        <v>0.9446018122065107</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.43457494650491</v>
+        <v>2.462094</v>
       </c>
       <c r="N3">
-        <v>2.43457494650491</v>
+        <v>7.386282</v>
       </c>
       <c r="O3">
-        <v>0.2154105888711721</v>
+        <v>0.1437893994387872</v>
       </c>
       <c r="P3">
-        <v>0.2154105888711721</v>
+        <v>0.1437893994387872</v>
       </c>
       <c r="Q3">
-        <v>9.810146217669255</v>
+        <v>12.077794730718</v>
       </c>
       <c r="R3">
-        <v>9.810146217669255</v>
+        <v>108.700152576462</v>
       </c>
       <c r="S3">
-        <v>0.2061883812445052</v>
+        <v>0.1358237272859642</v>
       </c>
       <c r="T3">
-        <v>0.2061883812445052</v>
+        <v>0.1358237272859643</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.02951087283337</v>
+        <v>4.905497</v>
       </c>
       <c r="H4">
-        <v>4.02951087283337</v>
+        <v>14.716491</v>
       </c>
       <c r="I4">
-        <v>0.9571877702252493</v>
+        <v>0.9446018122065107</v>
       </c>
       <c r="J4">
-        <v>0.9571877702252493</v>
+        <v>0.9446018122065107</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.62421775191397</v>
+        <v>4.336036333333333</v>
       </c>
       <c r="N4">
-        <v>3.62421775191397</v>
+        <v>13.008109</v>
       </c>
       <c r="O4">
-        <v>0.3206698899361937</v>
+        <v>0.2532299986575496</v>
       </c>
       <c r="P4">
-        <v>0.3206698899361937</v>
+        <v>0.2532299986575496</v>
       </c>
       <c r="Q4">
-        <v>14.60382483685306</v>
+        <v>21.27041322505767</v>
       </c>
       <c r="R4">
-        <v>14.60382483685306</v>
+        <v>191.433719025519</v>
       </c>
       <c r="S4">
-        <v>0.3069412969264013</v>
+        <v>0.2392015156369737</v>
       </c>
       <c r="T4">
-        <v>0.3069412969264013</v>
+        <v>0.2392015156369737</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.02951087283337</v>
+        <v>4.905497</v>
       </c>
       <c r="H5">
-        <v>4.02951087283337</v>
+        <v>14.716491</v>
       </c>
       <c r="I5">
-        <v>0.9571877702252493</v>
+        <v>0.9446018122065107</v>
       </c>
       <c r="J5">
-        <v>0.9571877702252493</v>
+        <v>0.9446018122065107</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.16483496370046</v>
+        <v>8.941088000000001</v>
       </c>
       <c r="N5">
-        <v>4.16483496370046</v>
+        <v>26.823264</v>
       </c>
       <c r="O5">
-        <v>0.3685035670682129</v>
+        <v>0.5221708325715213</v>
       </c>
       <c r="P5">
-        <v>0.3685035670682129</v>
+        <v>0.5221708325715213</v>
       </c>
       <c r="Q5">
-        <v>16.78224776978758</v>
+        <v>43.860480360736</v>
       </c>
       <c r="R5">
-        <v>16.78224776978758</v>
+        <v>394.744323246624</v>
       </c>
       <c r="S5">
-        <v>0.3527271076820733</v>
+        <v>0.4932435147284415</v>
       </c>
       <c r="T5">
-        <v>0.3527271076820733</v>
+        <v>0.4932435147284415</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.180228321687606</v>
+        <v>0.2876933333333333</v>
       </c>
       <c r="H6">
-        <v>0.180228321687606</v>
+        <v>0.86308</v>
       </c>
       <c r="I6">
-        <v>0.04281222977475071</v>
+        <v>0.0553981877934893</v>
       </c>
       <c r="J6">
-        <v>0.04281222977475071</v>
+        <v>0.0553981877934893</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.07839309397694</v>
+        <v>1.383699</v>
       </c>
       <c r="N6">
-        <v>1.07839309397694</v>
+        <v>4.151097</v>
       </c>
       <c r="O6">
-        <v>0.0954159541244213</v>
+        <v>0.08080976933214185</v>
       </c>
       <c r="P6">
-        <v>0.0954159541244213</v>
+        <v>0.08080976933214185</v>
       </c>
       <c r="Q6">
-        <v>0.1943569774469687</v>
+        <v>0.3980809776399999</v>
       </c>
       <c r="R6">
-        <v>0.1943569774469687</v>
+        <v>3.58272879876</v>
       </c>
       <c r="S6">
-        <v>0.004084969752151797</v>
+        <v>0.004476714777010547</v>
       </c>
       <c r="T6">
-        <v>0.004084969752151797</v>
+        <v>0.004476714777010547</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.180228321687606</v>
+        <v>0.2876933333333333</v>
       </c>
       <c r="H7">
-        <v>0.180228321687606</v>
+        <v>0.86308</v>
       </c>
       <c r="I7">
-        <v>0.04281222977475071</v>
+        <v>0.0553981877934893</v>
       </c>
       <c r="J7">
-        <v>0.04281222977475071</v>
+        <v>0.0553981877934893</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.43457494650491</v>
+        <v>2.462094</v>
       </c>
       <c r="N7">
-        <v>2.43457494650491</v>
+        <v>7.386282</v>
       </c>
       <c r="O7">
-        <v>0.2154105888711721</v>
+        <v>0.1437893994387872</v>
       </c>
       <c r="P7">
-        <v>0.2154105888711721</v>
+        <v>0.1437893994387872</v>
       </c>
       <c r="Q7">
-        <v>0.4387793566312731</v>
+        <v>0.7083280298399999</v>
       </c>
       <c r="R7">
-        <v>0.4387793566312731</v>
+        <v>6.37495226856</v>
       </c>
       <c r="S7">
-        <v>0.00922220762666698</v>
+        <v>0.00796567215282298</v>
       </c>
       <c r="T7">
-        <v>0.00922220762666698</v>
+        <v>0.007965672152822982</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.180228321687606</v>
+        <v>0.2876933333333333</v>
       </c>
       <c r="H8">
-        <v>0.180228321687606</v>
+        <v>0.86308</v>
       </c>
       <c r="I8">
-        <v>0.04281222977475071</v>
+        <v>0.0553981877934893</v>
       </c>
       <c r="J8">
-        <v>0.04281222977475071</v>
+        <v>0.0553981877934893</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.62421775191397</v>
+        <v>4.336036333333333</v>
       </c>
       <c r="N8">
-        <v>3.62421775191397</v>
+        <v>13.008109</v>
       </c>
       <c r="O8">
-        <v>0.3206698899361937</v>
+        <v>0.2532299986575496</v>
       </c>
       <c r="P8">
-        <v>0.3206698899361937</v>
+        <v>0.2532299986575496</v>
       </c>
       <c r="Q8">
-        <v>0.6531866828578832</v>
+        <v>1.247448746191111</v>
       </c>
       <c r="R8">
-        <v>0.6531866828578832</v>
+        <v>11.22703871572</v>
       </c>
       <c r="S8">
-        <v>0.01372859300979234</v>
+        <v>0.01402848302057598</v>
       </c>
       <c r="T8">
-        <v>0.01372859300979234</v>
+        <v>0.01402848302057598</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.180228321687606</v>
+        <v>0.2876933333333333</v>
       </c>
       <c r="H9">
-        <v>0.180228321687606</v>
+        <v>0.86308</v>
       </c>
       <c r="I9">
-        <v>0.04281222977475071</v>
+        <v>0.0553981877934893</v>
       </c>
       <c r="J9">
-        <v>0.04281222977475071</v>
+        <v>0.0553981877934893</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.16483496370046</v>
+        <v>8.941088000000001</v>
       </c>
       <c r="N9">
-        <v>4.16483496370046</v>
+        <v>26.823264</v>
       </c>
       <c r="O9">
-        <v>0.3685035670682129</v>
+        <v>0.5221708325715213</v>
       </c>
       <c r="P9">
-        <v>0.3685035670682129</v>
+        <v>0.5221708325715213</v>
       </c>
       <c r="Q9">
-        <v>0.7506212156135953</v>
+        <v>2.572291410346667</v>
       </c>
       <c r="R9">
-        <v>0.7506212156135953</v>
+        <v>23.15062269312</v>
       </c>
       <c r="S9">
-        <v>0.01577645938613959</v>
+        <v>0.0289273178430798</v>
       </c>
       <c r="T9">
-        <v>0.01577645938613959</v>
+        <v>0.0289273178430798</v>
       </c>
     </row>
   </sheetData>
